--- a/src/main/resources/excel-template/customer.xlsx
+++ b/src/main/resources/excel-template/customer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B45CE7-08F0-4BF0-AC34-29A2E5D963E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0E3AC2-56C6-4769-873A-56F310C58759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,7 +236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,20 +252,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -563,28 +569,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -648,67 +654,70 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:20" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="8" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/excel-template/customer.xlsx
+++ b/src/main/resources/excel-template/customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0E3AC2-56C6-4769-873A-56F310C58759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC38709-6E3E-44E7-B8F3-DA8EB8672D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>t.sex==1?男:女</t>
+    <t>t.sexStr</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -252,26 +252,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,7 +551,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -562,6 +562,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" customWidth="1"/>
     <col min="9" max="9" width="11.296875" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="14" max="14" width="11.3984375" customWidth="1"/>
     <col min="15" max="15" width="6.3984375" customWidth="1"/>
     <col min="17" max="17" width="13.09765625" customWidth="1"/>
@@ -569,28 +570,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -654,70 +655,70 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G6" s="11"/>
+      <c r="G6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/excel-template/customer.xlsx
+++ b/src/main/resources/excel-template/customer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC38709-6E3E-44E7-B8F3-DA8EB8672D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ECB47B-7EB3-468F-85F9-36B5EC0857E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>营销中心来访客户登记表汇总</t>
   </si>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>t.sexStr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.productTypeStr</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -566,10 +574,11 @@
     <col min="14" max="14" width="11.3984375" customWidth="1"/>
     <col min="15" max="15" width="6.3984375" customWidth="1"/>
     <col min="17" max="17" width="13.09765625" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" customWidth="1"/>
+    <col min="19" max="19" width="15.796875" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -592,8 +601,9 @@
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -649,13 +659,16 @@
         <v>18</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -711,18 +724,21 @@
         <v>32</v>
       </c>
       <c r="S3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A1:U1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
